--- a/models/Devis_PBL.xlsx
+++ b/models/Devis_PBL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gestion_clients\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA763976-4136-497D-BB83-1A6E3BE0140C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA1EC08-D6C4-41E9-AF8F-9201E311F3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25350" yWindow="1605" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOUMISSION" sheetId="8" r:id="rId1"/>
@@ -68,134 +68,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={B3A9BB73-1015-4701-81C8-D7F63BFB5206}</author>
-    <author>tc={2C1D14FA-D420-41D2-94D9-48352E01373A}</author>
-    <author>tc={B4F2211D-482F-47C9-955C-0D48E9A9CCA1}</author>
-    <author>tc={341CF473-C2EC-47D0-8635-2B5288462E76}</author>
-    <author>tc={054092DF-38FE-4B8B-BFFA-69FC01EBA529}</author>
-    <author>tc={5E403F88-ABA4-48AD-B8AB-C6C47A63E6EA}</author>
-    <author>tc={62F6D456-E0E7-4AF4-903B-DC6BE877BABD}</author>
-    <author>tc={5759A000-2B64-44CD-B694-17F4BE35F2C0}</author>
-    <author>tc={BAA3090A-124D-4A0D-97FE-C1C906FD9FD7}</author>
-    <author>tc={0B88923A-23AA-400D-B3D1-8D4FDF55DE2C}</author>
-    <author>tc={970BAEEA-D788-4853-9E29-DFD6D1BAF5AD}</author>
-    <author>tc={6BFC112E-EEC5-4BB6-938F-16C713C5CF84}</author>
-    <author>tc={CE686ED0-78AA-4F7A-B552-3C0190C1A759}</author>
-  </authors>
-  <commentList>
-    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{B3A9BB73-1015-4701-81C8-D7F63BFB5206}">
-      <text>
-        <t>[Commentaire à thread]
-Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
-Commentaire :
-    client</t>
-      </text>
-    </comment>
-    <comment ref="I14" authorId="1" shapeId="0" xr:uid="{2C1D14FA-D420-41D2-94D9-48352E01373A}">
-      <text>
-        <t>[Commentaire à thread]
-Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
-Commentaire :
-    Submission number</t>
-      </text>
-    </comment>
-    <comment ref="B16" authorId="2" shapeId="0" xr:uid="{B4F2211D-482F-47C9-955C-0D48E9A9CCA1}">
-      <text>
-        <t>[Commentaire à thread]
-Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
-Commentaire :
-    contact</t>
-      </text>
-    </comment>
-    <comment ref="I16" authorId="3" shapeId="0" xr:uid="{341CF473-C2EC-47D0-8635-2B5288462E76}">
-      <text>
-        <t>[Commentaire à thread]
-Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
-Commentaire :
-    date</t>
-      </text>
-    </comment>
-    <comment ref="B18" authorId="4" shapeId="0" xr:uid="{054092DF-38FE-4B8B-BFFA-69FC01EBA529}">
-      <text>
-        <t>[Commentaire à thread]
-Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
-Commentaire :
-    Telephone from table contacts</t>
-      </text>
-    </comment>
-    <comment ref="I18" authorId="5" shapeId="0" xr:uid="{5E403F88-ABA4-48AD-B8AB-C6C47A63E6EA}">
-      <text>
-        <t>[Commentaire à thread]
-Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
-Commentaire :
-    Projet + ville</t>
-      </text>
-    </comment>
-    <comment ref="B22" authorId="6" shapeId="0" xr:uid="{62F6D456-E0E7-4AF4-903B-DC6BE877BABD}">
-      <text>
-        <t>[Commentaire à thread]
-Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
-Commentaire :
-    Courriel from table contacts</t>
-      </text>
-    </comment>
-    <comment ref="E27" authorId="7" shapeId="0" xr:uid="{5759A000-2B64-44CD-B694-17F4BE35F2C0}">
-      <text>
-        <t>[Commentaire à thread]
-Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
-Commentaire :
-    mobilisations</t>
-      </text>
-    </comment>
-    <comment ref="B34" authorId="8" shapeId="0" xr:uid="{BAA3090A-124D-4A0D-97FE-C1C906FD9FD7}">
-      <text>
-        <t>[Commentaire à thread]
-Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
-Commentaire :
-    product</t>
-      </text>
-    </comment>
-    <comment ref="E34" authorId="9" shapeId="0" xr:uid="{0B88923A-23AA-400D-B3D1-8D4FDF55DE2C}">
-      <text>
-        <t>[Commentaire à thread]
-Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
-Commentaire :
-    thicknee</t>
-      </text>
-    </comment>
-    <comment ref="F34" authorId="10" shapeId="0" xr:uid="{970BAEEA-D788-4853-9E29-DFD6D1BAF5AD}">
-      <text>
-        <t>[Commentaire à thread]
-Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
-Commentaire :
-    area</t>
-      </text>
-    </comment>
-    <comment ref="J34" authorId="11" shapeId="0" xr:uid="{6BFC112E-EEC5-4BB6-938F-16C713C5CF84}">
-      <text>
-        <t>[Commentaire à thread]
-Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
-Commentaire :
-    Prix_pi2_ajuste ou prix_unitaire si prix_pi2_ajuste est nul</t>
-      </text>
-    </comment>
-    <comment ref="K34" authorId="12" shapeId="0" xr:uid="{CE686ED0-78AA-4F7A-B552-3C0190C1A759}">
-      <text>
-        <t>[Commentaire à thread]
-Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
-Commentaire :
-    Prix_total_ajuste ou prix_total_immeuble si prix_total_ajuste est nul</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="128">
   <si>
     <t>PRODUIT</t>
   </si>
@@ -631,6 +505,9 @@
   </si>
   <si>
     <t>Nos travaux engendrent l'émission de poussière de gypse autour du camion-usine. Prévoir le dégagement des véhicules à proximité et la protection des surfaces exposées.</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -2089,6 +1966,18 @@
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2133,18 +2022,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2255,9 +2132,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Daniel Legare" id="{E0488DDD-59B4-4D72-85E6-D9A6875A66B1}" userId="9a744b830809e37c" providerId="Windows Live"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2545,50 +2420,6 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B14" dT="2025-06-18T13:14:43.27" personId="{E0488DDD-59B4-4D72-85E6-D9A6875A66B1}" id="{B3A9BB73-1015-4701-81C8-D7F63BFB5206}">
-    <text>client</text>
-  </threadedComment>
-  <threadedComment ref="I14" dT="2025-06-18T13:16:16.51" personId="{E0488DDD-59B4-4D72-85E6-D9A6875A66B1}" id="{2C1D14FA-D420-41D2-94D9-48352E01373A}">
-    <text>Submission number</text>
-  </threadedComment>
-  <threadedComment ref="B16" dT="2025-06-18T13:14:16.51" personId="{E0488DDD-59B4-4D72-85E6-D9A6875A66B1}" id="{B4F2211D-482F-47C9-955C-0D48E9A9CCA1}">
-    <text>contact</text>
-  </threadedComment>
-  <threadedComment ref="I16" dT="2025-06-18T13:16:24.26" personId="{E0488DDD-59B4-4D72-85E6-D9A6875A66B1}" id="{341CF473-C2EC-47D0-8635-2B5288462E76}">
-    <text>date</text>
-  </threadedComment>
-  <threadedComment ref="B18" dT="2025-06-18T13:15:12.34" personId="{E0488DDD-59B4-4D72-85E6-D9A6875A66B1}" id="{054092DF-38FE-4B8B-BFFA-69FC01EBA529}">
-    <text>Telephone from table contacts</text>
-  </threadedComment>
-  <threadedComment ref="I18" dT="2025-06-18T13:16:39.66" personId="{E0488DDD-59B4-4D72-85E6-D9A6875A66B1}" id="{5E403F88-ABA4-48AD-B8AB-C6C47A63E6EA}">
-    <text>Projet + ville</text>
-  </threadedComment>
-  <threadedComment ref="B22" dT="2025-06-18T13:15:36.63" personId="{E0488DDD-59B4-4D72-85E6-D9A6875A66B1}" id="{62F6D456-E0E7-4AF4-903B-DC6BE877BABD}">
-    <text>Courriel from table contacts</text>
-  </threadedComment>
-  <threadedComment ref="E27" dT="2025-06-18T13:17:44.21" personId="{E0488DDD-59B4-4D72-85E6-D9A6875A66B1}" id="{5759A000-2B64-44CD-B694-17F4BE35F2C0}">
-    <text>mobilisations</text>
-  </threadedComment>
-  <threadedComment ref="B34" dT="2025-06-18T13:19:11.15" personId="{E0488DDD-59B4-4D72-85E6-D9A6875A66B1}" id="{BAA3090A-124D-4A0D-97FE-C1C906FD9FD7}">
-    <text>product</text>
-  </threadedComment>
-  <threadedComment ref="E34" dT="2025-06-18T13:20:17.40" personId="{E0488DDD-59B4-4D72-85E6-D9A6875A66B1}" id="{0B88923A-23AA-400D-B3D1-8D4FDF55DE2C}">
-    <text>thicknee</text>
-  </threadedComment>
-  <threadedComment ref="F34" dT="2025-06-18T13:21:15.64" personId="{E0488DDD-59B4-4D72-85E6-D9A6875A66B1}" id="{970BAEEA-D788-4853-9E29-DFD6D1BAF5AD}">
-    <text>area</text>
-  </threadedComment>
-  <threadedComment ref="J34" dT="2025-06-18T13:23:11.86" personId="{E0488DDD-59B4-4D72-85E6-D9A6875A66B1}" id="{6BFC112E-EEC5-4BB6-938F-16C713C5CF84}">
-    <text>Prix_pi2_ajuste ou prix_unitaire si prix_pi2_ajuste est nul</text>
-  </threadedComment>
-  <threadedComment ref="K34" dT="2025-06-18T13:24:16.36" personId="{E0488DDD-59B4-4D72-85E6-D9A6875A66B1}" id="{CE686ED0-78AA-4F7A-B552-3C0190C1A759}">
-    <text>Prix_total_ajuste ou prix_total_immeuble si prix_total_ajuste est nul</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="right" visibility="0" width="350" row="8">
@@ -2645,7 +2476,7 @@
   </sheetPr>
   <dimension ref="A1:P129"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B26" sqref="B26:K26"/>
     </sheetView>
   </sheetViews>
@@ -2937,22 +2768,26 @@
       <c r="C27" s="174"/>
       <c r="D27" s="175"/>
       <c r="E27" s="32"/>
-      <c r="F27" s="186" t="s">
+      <c r="F27" s="189" t="s">
         <v>36</v>
       </c>
-      <c r="G27" s="187"/>
-      <c r="H27" s="187"/>
-      <c r="I27" s="188"/>
-      <c r="J27" s="184"/>
-      <c r="K27" s="185"/>
+      <c r="G27" s="190"/>
+      <c r="H27" s="190"/>
+      <c r="I27" s="191"/>
+      <c r="J27" s="187">
+        <v>3500</v>
+      </c>
+      <c r="K27" s="188"/>
     </row>
     <row r="28" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="189" t="s">
+      <c r="B28" s="192" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="190"/>
-      <c r="D28" s="191"/>
-      <c r="E28" s="35"/>
+      <c r="C28" s="193"/>
+      <c r="D28" s="194"/>
+      <c r="E28" s="35" t="s">
+        <v>127</v>
+      </c>
       <c r="F28" s="176" t="s">
         <v>35</v>
       </c>
@@ -2993,11 +2828,11 @@
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="2:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="181" t="s">
+      <c r="B32" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="182"/>
-      <c r="D32" s="183"/>
+      <c r="C32" s="185"/>
+      <c r="D32" s="186"/>
       <c r="E32" s="37" t="s">
         <v>9</v>
       </c>
@@ -3017,9 +2852,9 @@
       </c>
     </row>
     <row r="33" spans="2:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="192"/>
-      <c r="C33" s="193"/>
-      <c r="D33" s="194"/>
+      <c r="B33" s="195"/>
+      <c r="C33" s="196"/>
+      <c r="D33" s="197"/>
       <c r="E33" s="54"/>
       <c r="F33" s="170"/>
       <c r="G33" s="171"/>
@@ -3029,9 +2864,9 @@
       <c r="K33" s="26"/>
     </row>
     <row r="34" spans="2:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="195"/>
-      <c r="C34" s="196"/>
-      <c r="D34" s="197"/>
+      <c r="B34" s="181"/>
+      <c r="C34" s="182"/>
+      <c r="D34" s="183"/>
       <c r="E34" s="54"/>
       <c r="F34" s="166"/>
       <c r="G34" s="167"/>
@@ -3040,141 +2875,177 @@
         <v>44</v>
       </c>
       <c r="J34" s="25"/>
-      <c r="K34" s="26"/>
+      <c r="K34" s="26">
+        <f>F34*J34</f>
+        <v>0</v>
+      </c>
       <c r="M34" s="62"/>
     </row>
     <row r="35" spans="2:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="195"/>
-      <c r="C35" s="196"/>
-      <c r="D35" s="197"/>
+      <c r="B35" s="181"/>
+      <c r="C35" s="182"/>
+      <c r="D35" s="183"/>
       <c r="E35" s="54"/>
       <c r="F35" s="166"/>
       <c r="G35" s="167"/>
       <c r="H35" s="168"/>
       <c r="I35" s="24"/>
       <c r="J35" s="25"/>
-      <c r="K35" s="26"/>
+      <c r="K35" s="26">
+        <f t="shared" ref="K35:K45" si="0">F35*J35</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="2:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="195"/>
-      <c r="C36" s="196"/>
-      <c r="D36" s="197"/>
+      <c r="B36" s="181"/>
+      <c r="C36" s="182"/>
+      <c r="D36" s="183"/>
       <c r="E36" s="54"/>
       <c r="F36" s="166"/>
       <c r="G36" s="167"/>
       <c r="H36" s="168"/>
       <c r="I36" s="24"/>
       <c r="J36" s="25"/>
-      <c r="K36" s="26"/>
+      <c r="K36" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M36" s="62"/>
     </row>
     <row r="37" spans="2:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="195"/>
-      <c r="C37" s="196"/>
-      <c r="D37" s="197"/>
+      <c r="B37" s="181"/>
+      <c r="C37" s="182"/>
+      <c r="D37" s="183"/>
       <c r="E37" s="54"/>
       <c r="F37" s="166"/>
       <c r="G37" s="167"/>
       <c r="H37" s="168"/>
       <c r="I37" s="24"/>
       <c r="J37" s="25"/>
-      <c r="K37" s="26"/>
+      <c r="K37" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="2:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="195"/>
-      <c r="C38" s="196"/>
-      <c r="D38" s="197"/>
+      <c r="B38" s="181"/>
+      <c r="C38" s="182"/>
+      <c r="D38" s="183"/>
       <c r="E38" s="54"/>
       <c r="F38" s="166"/>
       <c r="G38" s="167"/>
       <c r="H38" s="168"/>
       <c r="I38" s="24"/>
       <c r="J38" s="25"/>
-      <c r="K38" s="26"/>
+      <c r="K38" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="2:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="195"/>
-      <c r="C39" s="196"/>
-      <c r="D39" s="197"/>
+      <c r="B39" s="181"/>
+      <c r="C39" s="182"/>
+      <c r="D39" s="183"/>
       <c r="E39" s="54"/>
       <c r="F39" s="166"/>
       <c r="G39" s="167"/>
       <c r="H39" s="168"/>
       <c r="I39" s="24"/>
       <c r="J39" s="25"/>
-      <c r="K39" s="26"/>
+      <c r="K39" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="2:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="195"/>
-      <c r="C40" s="196"/>
-      <c r="D40" s="197"/>
+      <c r="B40" s="181"/>
+      <c r="C40" s="182"/>
+      <c r="D40" s="183"/>
       <c r="E40" s="54"/>
       <c r="F40" s="166"/>
       <c r="G40" s="167"/>
       <c r="H40" s="168"/>
       <c r="I40" s="24"/>
       <c r="J40" s="47"/>
-      <c r="K40" s="26"/>
+      <c r="K40" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="2:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="195"/>
-      <c r="C41" s="196"/>
-      <c r="D41" s="197"/>
+      <c r="B41" s="181"/>
+      <c r="C41" s="182"/>
+      <c r="D41" s="183"/>
       <c r="E41" s="54"/>
       <c r="F41" s="166"/>
       <c r="G41" s="167"/>
       <c r="H41" s="168"/>
       <c r="I41" s="24"/>
       <c r="J41" s="48"/>
-      <c r="K41" s="26"/>
+      <c r="K41" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="2:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="195"/>
-      <c r="C42" s="196"/>
-      <c r="D42" s="197"/>
+      <c r="B42" s="181"/>
+      <c r="C42" s="182"/>
+      <c r="D42" s="183"/>
       <c r="E42" s="54"/>
       <c r="F42" s="166"/>
       <c r="G42" s="167"/>
       <c r="H42" s="168"/>
       <c r="I42" s="24"/>
       <c r="J42" s="48"/>
-      <c r="K42" s="26"/>
+      <c r="K42" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="2:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="195"/>
-      <c r="C43" s="196"/>
-      <c r="D43" s="197"/>
+      <c r="B43" s="181"/>
+      <c r="C43" s="182"/>
+      <c r="D43" s="183"/>
       <c r="E43" s="54"/>
       <c r="F43" s="166"/>
       <c r="G43" s="167"/>
       <c r="H43" s="168"/>
       <c r="I43" s="24"/>
       <c r="J43" s="48"/>
-      <c r="K43" s="26"/>
+      <c r="K43" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="2:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="195"/>
-      <c r="C44" s="196"/>
-      <c r="D44" s="197"/>
+      <c r="B44" s="181"/>
+      <c r="C44" s="182"/>
+      <c r="D44" s="183"/>
       <c r="E44" s="54"/>
       <c r="F44" s="166"/>
       <c r="G44" s="167"/>
       <c r="H44" s="168"/>
       <c r="I44" s="24"/>
       <c r="J44" s="48"/>
-      <c r="K44" s="26"/>
+      <c r="K44" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="2:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="199"/>
-      <c r="C45" s="196"/>
-      <c r="D45" s="197"/>
+      <c r="C45" s="182"/>
+      <c r="D45" s="183"/>
       <c r="E45" s="54"/>
       <c r="F45" s="166"/>
       <c r="G45" s="167"/>
       <c r="H45" s="168"/>
       <c r="I45" s="24"/>
       <c r="J45" s="48"/>
-      <c r="K45" s="26"/>
+      <c r="K45" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="2:13" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="111"/>
